--- a/Q_desc.xlsx
+++ b/Q_desc.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nmggroup-my.sharepoint.com/personal/kelvin_jin-yang_nmg-group_com/Documents/Documents/GitHub/NMG-Noteable-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC10480D015A733C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A1D8D1E-F6B1-437D-B759-DDE0870E31F8}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC10480D015A733C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD5F6ED-DEA8-4A9F-94A2-7655BFBAAEBC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="627">
   <si>
     <t>SEC Region</t>
   </si>
@@ -1405,6 +1416,507 @@
   </si>
   <si>
     <t>12C(2)</t>
+  </si>
+  <si>
+    <t>Do you have one or more websites or accounts on publicly available social media platforms (including, but not limited to, Twitter, Facebook and LinkedIn)?</t>
+  </si>
+  <si>
+    <t>Do you maintain some or all of the books and records you are required to keep under Section 204 of the Advisers Act, or similar state law, somewhere other than your principal office and place of business?</t>
+  </si>
+  <si>
+    <t>Are you registered with a foreign financial regulatory authority?</t>
+  </si>
+  <si>
+    <t>Are you a public reporting company under Sections 12 or 15(d) of the Securities Exchange Act of 1934?</t>
+  </si>
+  <si>
+    <t>Did you have $1 billion or more in assets on the last day of your most recent fiscal year?</t>
+  </si>
+  <si>
+    <t>Provide your Legal Entity Identifier if you have one:</t>
+  </si>
+  <si>
+    <t>You are a large advisory firm that either: (a) has regulatory assets under management of $100 million (in U.S. dollars) or more; or (b) has regulatory assets under management of $90 million (in U.S. dollars) or more at the time of filing its most recent annual updating amendment and is registered with the SEC;</t>
+  </si>
+  <si>
+    <t>You are a mid-sized advisory firm that has regulatory assets under management of $25 million (in U.S. dollars) or more but less than $100 million (in U.S. dollars) and you are either: (a) not required to be registered as an adviser with the state securities authority of the state where you maintain your principal office and place of business; or (b) not subject to examination by the state securities authority of the state where you maintain your principal office and place of business;</t>
+  </si>
+  <si>
+    <t>You have your principal office and place of business outside the United States;</t>
+  </si>
+  <si>
+    <t>You are an investment adviser (or subadviser) to an investment company registered under the Investment Company Act of 1940;</t>
+  </si>
+  <si>
+    <t>You are an investment adviser to a company which has elected to be a business development company pursuant to section 54 of the Investment Company Act of 1940 and has not withdrawn the election, and you have at least $25 million of regulatory assets under management;</t>
+  </si>
+  <si>
+    <t>You are a pension consultant with respect to assets of plans having an aggregate value of at least $200,000,000 that qualifies for the exemption in rule 203A-2(a)</t>
+  </si>
+  <si>
+    <t>You are a related adviser under rule 203A-2(b) that controls, is controlled by, or is under common control with, an investment adviser that is registered with the SEC, and your principal office and place of business is the same as the registered adviser;</t>
+  </si>
+  <si>
+    <t>You are an adviser relying on rule 203A-2(c) because you expect to be eligible for SEC registration within 120 days;</t>
+  </si>
+  <si>
+    <t>You are a multi-state adviser that is required to register in 15 or more states and is relying on rule 203A-2(d);</t>
+  </si>
+  <si>
+    <t>You are an Internet adviser relying on rule 203A-2(e);</t>
+  </si>
+  <si>
+    <t>You have received an SEC order exempting you from the prohibition against registration with the SEC;</t>
+  </si>
+  <si>
+    <t>You are no longer eligible to remain registered with the SEC</t>
+  </si>
+  <si>
+    <t>How are you organized?</t>
+  </si>
+  <si>
+    <t>How are you organized? -Other</t>
+  </si>
+  <si>
+    <t>In what month does your fiscal year end each year?</t>
+  </si>
+  <si>
+    <t>Under the laws of what state or country are you organized? State</t>
+  </si>
+  <si>
+    <t>Under the laws of what state or country are you organized? Country</t>
+  </si>
+  <si>
+    <t>Are you, at the time of this filing, succeeding to the business of a registered investment adviser, including, for example, a change of your structure or legal status (e.g., form of organization or state of incorporation)?</t>
+  </si>
+  <si>
+    <t>Date of Succession:</t>
+  </si>
+  <si>
+    <t>Approximately how many employees do you have? Include full- and part-time employees but do not include any clerical workers</t>
+  </si>
+  <si>
+    <t>Approximately how many of the employees reported in 5.A. perform investment advisory functions (including research)?</t>
+  </si>
+  <si>
+    <t>Approximately how many of the employees reported in 5.A. are registered representatives of a broker-dealer?</t>
+  </si>
+  <si>
+    <t>Approximately how many of the employees reported in 5.A. are registered with one or more state securities authorities as investment adviser representatives?</t>
+  </si>
+  <si>
+    <t>Approximately how many of the employees reported in 5.A. are registered with one or more state securities authorities as investment adviser representatives for an investment adviser other than you?</t>
+  </si>
+  <si>
+    <t>Approximately how many of the employees reported in 5.A. are licensed agents of an insurance company or agency?</t>
+  </si>
+  <si>
+    <t>Approximately how many firms or other persons solicit advisory clients on your behalf?</t>
+  </si>
+  <si>
+    <t>To approximately how many clients for whom you do not have regulatory assets under management did you provide investment advisory services during your most recently completed fiscal year?</t>
+  </si>
+  <si>
+    <t>To approximately how many clients for whom you do not have regulatory assets under management did you provide investment advisory services during your most recently completed fiscal year? -If more than 100, how many</t>
+  </si>
+  <si>
+    <t>Approximately what percentage of your clients are non-United States persons?</t>
+  </si>
+  <si>
+    <t>Number of client(s) (a) Individuals (other than high net worth individuals)</t>
+  </si>
+  <si>
+    <t>Number of client(s) (b) High net worth individuals</t>
+  </si>
+  <si>
+    <t>Number of client(s) (c) Banking or thrift institutions</t>
+  </si>
+  <si>
+    <t>Number of client(s) (d) Investment companies</t>
+  </si>
+  <si>
+    <t>Number of client(s) (e) Business development companies</t>
+  </si>
+  <si>
+    <t>Number of client(s) (f) Pooled investment vehicles (other than investment companies and business development companies)</t>
+  </si>
+  <si>
+    <t>Number of client(s) (g) Pension and profit sharing plans (but not the plan participants or government pension plans)</t>
+  </si>
+  <si>
+    <t>Number of client(s) (h) Charitable organizations</t>
+  </si>
+  <si>
+    <t>Number of client(s) (i) State or municipal government entities (including government pension plans)</t>
+  </si>
+  <si>
+    <t>Number of client(s) (j) Other investment advisers</t>
+  </si>
+  <si>
+    <t>Number of client(s) (k) Insurance companies</t>
+  </si>
+  <si>
+    <t>Number of client(s) (l) Sovereign wealth funds and foreign official institutions</t>
+  </si>
+  <si>
+    <t>Number of client(s) (m) Corporations or other businesses not listed above</t>
+  </si>
+  <si>
+    <t>Number of client(s) (n) Other</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (a) Individuals (other than high net worth individuals)</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (b) High net worth individuals</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (c) Banking or thrift institutions</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (d) Investment companies</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (e) Business development companies</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (f) Pooled investment vehicles (other than investment companies and business development companies)</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (g) Pension and profit sharing plans (but not the plan participants or government pension plans)</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (h) Charitable organizations</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (i) State or municipal government entities (including government pension plans)</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (j) Other investment advisers</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (k) Insurance companies</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (l) Sovereign wealth funds and foreign official institutions</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (m) Corporations or other businesses not listed above</t>
+  </si>
+  <si>
+    <t>Fewer than 5 clients (n) Other</t>
+  </si>
+  <si>
+    <t>5D(n)(3) - Other description</t>
+  </si>
+  <si>
+    <t>Number of clients (a) Individuals (other than high net worth individuals)</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (a) Individuals (other than high net worth individuals)</t>
+  </si>
+  <si>
+    <t>Number of clients (b) High net worth individuals</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (b) High net worth individuals</t>
+  </si>
+  <si>
+    <t>Number of clients (c) Banking or thrift institutions</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (c) Banking or thrift institutions</t>
+  </si>
+  <si>
+    <t>Number of clients (d) Investment companies</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (d) Investment companies</t>
+  </si>
+  <si>
+    <t>Number of clients (e) Business development companies</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (e) Business development companies</t>
+  </si>
+  <si>
+    <t>Number of clients (f) Pooled investment vehicles (other than investment companies and business development companies)</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (f) Pooled investment vehicles (other than investment companies and business development companies)</t>
+  </si>
+  <si>
+    <t>Number of clients (g) Pension and profit sharing plans (but not the plan participants or government pension plans)</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (g) Pension and profit sharing plans (but not the plan participants or government pension plans)</t>
+  </si>
+  <si>
+    <t>Number of clients (h) Charitable organizations</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (h) Charitable organizations</t>
+  </si>
+  <si>
+    <t>Number of clients (i) State or municipal government entities (including government pension plans)</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (i) State or municipal government entities (including government pension plans)</t>
+  </si>
+  <si>
+    <t>Number of clients (j) Other investment advisers</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (j) Other investment advisers</t>
+  </si>
+  <si>
+    <t>Number of clients (k) Insurance companies</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (k) Insurance companies</t>
+  </si>
+  <si>
+    <t>Number of clients (l) Sovereign wealth funds and foreign official institutions</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (l) Sovereign wealth funds and foreign official institutions</t>
+  </si>
+  <si>
+    <t>Number of clients (m) Corporations or other businesses not listed above</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (m) Corporations or other businesses not listed above</t>
+  </si>
+  <si>
+    <t>Number of clients (n) Other</t>
+  </si>
+  <si>
+    <t>Amount of regulatory assets under management (n) Other</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (7) Other (specify):</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (1) A percentage of assets under your management</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (2) Hourly charges</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (3) Subscription fees (for a newsletter or periodical)</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (4) Fixed fees (other than subscription fees)</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (5) Commissions</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (6) Performance-based fees</t>
+  </si>
+  <si>
+    <t>Compensation arrangement (7) Other Yes/No:</t>
+  </si>
+  <si>
+    <t>Do you provide continuous and regular supervisory or management services to securities portfolios?</t>
+  </si>
+  <si>
+    <t>US Dollar amount regulatory assets under management discretionary</t>
+  </si>
+  <si>
+    <t>US Dollar amount regulatory assets under management non-discretionary</t>
+  </si>
+  <si>
+    <t>US Dollar amount regulatory assets under management total</t>
+  </si>
+  <si>
+    <t>Total number of accounts discretionary</t>
+  </si>
+  <si>
+    <t>Total number of accounts non-discretionary</t>
+  </si>
+  <si>
+    <t>Total number of accounts total</t>
+  </si>
+  <si>
+    <t>What is the approximate amount of your total regulatory assets under management (reported in Item 5.F.(2)(c) above) attributable to clients who are non-United States persons?</t>
+  </si>
+  <si>
+    <t>Advisory activities (12) Other(specify):</t>
+  </si>
+  <si>
+    <t>Advisory activities (1) Financial planning services</t>
+  </si>
+  <si>
+    <t>Advisory activities (2) Portfolio management for individuals and/or small businesses</t>
+  </si>
+  <si>
+    <t>Advisory activities (3) Portfolio management for investment companies (as well as "business development companies" that have made an election pursuant to section 54 of the Investment Company Act of 1940)</t>
+  </si>
+  <si>
+    <t>Advisory activities (4) Portfolio management for pooled investment vehicles (other than investment companies)</t>
+  </si>
+  <si>
+    <t>Advisory activities (5) Portfolio management for businesses (other than small businesses) or institutional clients (other than registered investment companies and other pooled investment vehicles)</t>
+  </si>
+  <si>
+    <t>Advisory activities (6) Pension consulting services</t>
+  </si>
+  <si>
+    <t>Advisory activities (7) Selection of other advisers (including private fund managers)</t>
+  </si>
+  <si>
+    <t>Advisory activities (8) Publication of periodicals or newsletters</t>
+  </si>
+  <si>
+    <t>Advisory activities (9) Security ratings or pricing services</t>
+  </si>
+  <si>
+    <t>Advisory activities (10) Market timing services</t>
+  </si>
+  <si>
+    <t>Advisory activities (11) Educational seminars/workshops</t>
+  </si>
+  <si>
+    <t>Advisory activities (12) Other(Yes/No):</t>
+  </si>
+  <si>
+    <t>If you provide financial planning services, to how many clients did you provide these services during your last fiscal year?</t>
+  </si>
+  <si>
+    <t>Do you participate in a wrap fee program?</t>
+  </si>
+  <si>
+    <t>If you participate in a wrap fee program, what is the amount of your regulatory assets under management attributable to acting as: sponsor to a wrap fee program</t>
+  </si>
+  <si>
+    <t>If you participate in a wrap fee program, what is the amount of your regulatory assets under management attributable to acting as: portfolio manager for a wrap fee program?</t>
+  </si>
+  <si>
+    <t>If you participate in a wrap fee program, what is the amount of your regulatory assets under management attributable to acting as: sponsor to and portfolio manager for the same wrap fee program?</t>
+  </si>
+  <si>
+    <t>(1) In response to Item 4.B. of Part 2A of Form ADV, do you indicate that you provide investment advice only with respect to limited types of investments?</t>
+  </si>
+  <si>
+    <t>(2) Do you report client assets in Item 4.E. of Part 2A that are computed using a different method than the method used to compute your regulatory assets under management?</t>
+  </si>
+  <si>
+    <t>(1) Do you have regulatory assets under management attributable to clients other than those listed in Item 5.D.(3)(d)-(f) (separately managed account clients)?</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(i) midyear percentage Separately Managed accounts asset allocation (i) Exchange-Traded Equity Securities</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(ii) midyear percentage Separately Managed accounts asset allocation (ii) Non Exchange-Traded Equity Securities</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(iii) midyear percentage Separately Managed accounts asset allocation (iii) U.S. Government/Agency Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(iv) midyear percentage Separately Managed accounts asset allocation (iv) U.S. State and Local Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(v) midyear percentage Separately Managed accounts asset allocation (v) Sovereign Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(vi) midyear percentage Separately Managed accounts asset allocation (vi) Investment Grade Corporate Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(vii) midyear percentage Separately Managed accounts asset allocation (vii) Non-Investment Grade Corporate Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(viii) midyear percentage Separately Managed accounts asset allocation (viii) Derivatives</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(ix) midyear percentage Separately Managed accounts asset allocation (ix) Securities Issued by Registered Investment Companies or Business Development Companies</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(x) midyear percentage Separately Managed accounts asset allocation (x) Securities Issued by Pooled Investment Vehicles (other than Registered Investment Companies or Business Development Companies)</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(xi) midyear percentage Separately Managed accounts asset allocation (xi) Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(xii) midyear percentage Separately Managed accounts asset allocation (xii) Other</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(i) end year percentage Separately Managed accounts asset allocation (i) Exchange-Traded Equity Securities</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(ii) end year percentage Separately Managed accounts asset allocation (ii) Non Exchange-Traded Equity Securities</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(iii) end year percentage Separately Managed accounts asset allocation (iii) U.S. Government/Agency Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(iv) end year percentage Separately Managed accounts asset allocation (iv) U.S. State and Local Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(v) end year percentage Separately Managed accounts asset allocation (v) Sovereign Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(vi) end year percentage Separately Managed accounts asset allocation (vi) Investment Grade Corporate Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(vii) end year percentage Separately Managed accounts asset allocation (vii) Non-Investment Grade Corporate Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(viii) end year percentage Separately Managed accounts asset allocation (viii) Derivatives</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(ix) end year percentage Separately Managed accounts asset allocation (ix) Securities Issued by Registered Investment Companies or Business Development Companies</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(x) end year percentage Separately Managed accounts asset allocation (x) Securities Issued by Pooled Investment Vehicles (other than Registered Investment Companies or Business Development Companies)</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(xi) end year percentage Separately Managed accounts asset allocation (xi) Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>5.K.(1)(a)(xii) end year percentage Separately Managed accounts asset allocation (xii) Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.K.(1)(a)(xii)  - Other description Separately Managed accounts asset allocation </t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(i) end year percentage Separately Managed accounts asset allocation (i) Exchange-Traded Equity Securities</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(ii) end year percentage Separately Managed accounts asset allocation (ii) Non Exchange-Traded Equity Securities</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(iii) end year percentage Separately Managed accounts asset allocation (iii) U.S. Government/Agency Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(iv) end year percentage Separately Managed accounts asset allocation (iv) U.S. State and Local Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(v) end year percentage Separately Managed accounts asset allocation (v) Sovereign Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(vi) end year percentage Separately Managed accounts asset allocation (vi) Investment Grade Corporate Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(vii) end year percentage Separately Managed accounts asset allocation (vii) Non-Investment Grade Corporate Bonds</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(viii) end year percentage Separately Managed accounts asset allocation (viii) Derivatives</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(ix) end year percentage Separately Managed accounts asset allocation (ix) Securities Issued by Registered Investment Companies or Business Development Companies</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(x) end year percentage Separately Managed accounts asset allocation (x) Securities Issued by Pooled Investment Vehicles (other than Registered Investment Companies or Business Development Companies)</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(xi) end year percentage Separately Managed accounts asset allocation (xi) Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>5.K.(1)(b)(xii) end year percentage Separately Managed accounts asset allocation (xii) Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.K.(1)(b)(xii)  - Other description Separately Managed accounts asset allocation </t>
   </si>
 </sst>
 </file>
@@ -1724,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2115,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2139,7 +2651,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2203,7 +2715,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2211,7 +2723,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2219,7 +2731,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2235,7 +2747,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -2243,7 +2755,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -2251,7 +2763,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -2259,7 +2771,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -2267,7 +2779,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -2275,7 +2787,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -2283,7 +2795,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -2291,7 +2803,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -2299,7 +2811,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -2307,7 +2819,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -2315,7 +2827,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -2323,7 +2835,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -2331,7 +2843,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2339,7 +2851,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -2347,7 +2859,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -2355,7 +2867,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -2363,7 +2875,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -2371,7 +2883,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -2379,7 +2891,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -2419,7 +2931,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -2427,7 +2939,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -2435,7 +2947,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -2443,7 +2955,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -2451,7 +2963,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -2459,7 +2971,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -2467,7 +2979,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -2475,7 +2987,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -2483,7 +2995,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -2491,7 +3003,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -2499,7 +3011,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -2507,7 +3019,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -2515,7 +3027,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -2523,7 +3035,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -2531,7 +3043,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2539,7 +3051,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -2547,7 +3059,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -2555,7 +3067,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -2563,7 +3075,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -2571,7 +3083,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -2579,7 +3091,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -2587,7 +3099,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -2595,7 +3107,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -2603,7 +3115,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -2611,7 +3123,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -2619,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2627,7 +3139,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2635,7 +3147,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -2643,7 +3155,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -2651,7 +3163,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -2659,7 +3171,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -2667,7 +3179,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -2675,7 +3187,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -2683,7 +3195,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -2691,7 +3203,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -2699,7 +3211,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -2707,7 +3219,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -2715,7 +3227,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -2723,7 +3235,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -2731,7 +3243,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -2739,7 +3251,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -2747,7 +3259,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -2755,7 +3267,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2763,7 +3275,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>510</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2771,7 +3283,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -2779,7 +3291,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -2787,7 +3299,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2795,7 +3307,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -2803,7 +3315,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -2811,7 +3323,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -2819,7 +3331,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -2827,7 +3339,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -2835,7 +3347,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>534</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -2843,7 +3355,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>535</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -2851,7 +3363,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>536</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2859,7 +3371,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2867,7 +3379,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>537</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2875,7 +3387,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2883,7 +3395,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -2891,7 +3403,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -2899,7 +3411,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -2907,7 +3419,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -2915,7 +3427,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2923,7 +3435,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2931,7 +3443,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2939,7 +3451,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2947,7 +3459,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2955,7 +3467,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -2963,7 +3475,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -2971,7 +3483,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2979,7 +3491,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -2987,7 +3499,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -2995,7 +3507,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -3003,7 +3515,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3011,7 +3523,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -3019,7 +3531,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -3027,7 +3539,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -3035,7 +3547,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -3043,7 +3555,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>523</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -3051,7 +3563,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -3059,7 +3571,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -3067,7 +3579,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -3075,7 +3587,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>556</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -3083,7 +3595,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -3091,7 +3603,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -3099,7 +3611,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -3107,7 +3619,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>552</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -3115,7 +3627,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>560</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -3123,7 +3635,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -3131,7 +3643,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -3139,7 +3651,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -3147,7 +3659,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -3155,7 +3667,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -3163,7 +3675,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>566</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -3171,7 +3683,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -3179,7 +3691,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -3187,7 +3699,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -3195,7 +3707,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -3219,7 +3731,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -3227,7 +3739,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -3235,7 +3747,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -3243,7 +3755,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -3251,7 +3763,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -3259,7 +3771,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -3267,7 +3779,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -3275,7 +3787,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -3283,7 +3795,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -3291,7 +3803,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -3299,7 +3811,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -3315,7 +3827,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -3323,7 +3835,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -3331,7 +3843,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>584</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -3339,7 +3851,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>585</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -3355,7 +3867,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>586</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -3363,7 +3875,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -3371,7 +3883,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -3379,7 +3891,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -3387,7 +3899,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -3395,7 +3907,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -3403,7 +3915,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>592</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -3411,7 +3923,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -3419,7 +3931,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>594</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -3427,7 +3939,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -3435,7 +3947,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -3443,7 +3955,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -3451,7 +3963,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -3459,7 +3971,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>599</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -3467,7 +3979,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -3475,7 +3987,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -3483,7 +3995,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -3491,7 +4003,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -3499,7 +4011,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -3507,7 +4019,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>605</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -3515,7 +4027,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -3523,7 +4035,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>607</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -3531,7 +4043,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -3539,7 +4051,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -3547,7 +4059,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -3555,7 +4067,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -3563,7 +4075,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -3571,7 +4083,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -3579,7 +4091,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -3587,7 +4099,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>615</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -3595,7 +4107,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>616</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -3603,7 +4115,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -3611,7 +4123,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>618</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -3619,7 +4131,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -3627,7 +4139,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>620</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -3635,7 +4147,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -3643,7 +4155,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -3651,7 +4163,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>623</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -3659,7 +4171,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>624</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -3667,7 +4179,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -3675,7 +4187,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
